--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2198936.384977964</v>
+        <v>-2199648.649731709</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.199249640013477</v>
+        <v>3.376898027766035</v>
       </c>
       <c r="G8" t="n">
         <v>3.516869431124803</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1776483877525582</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="R9" t="n">
-        <v>3.097658594934726</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6303957926862</v>
       </c>
       <c r="E11" t="n">
-        <v>179.9559274645706</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8802695799879</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700847</v>
+        <v>62.87039510700844</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294981</v>
+        <v>16.74367530294978</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013693</v>
+        <v>27.65826097778772</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.32438889692365</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00878260204226</v>
+        <v>72.00878260204223</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7546999762258</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.376387674824883</v>
+        <v>9.376387674824855</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47830382393114</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.87368945842319</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>13.44964351050414</v>
+      </c>
+      <c r="T12" t="n">
         <v>188.4860450762372</v>
       </c>
-      <c r="T12" t="n">
-        <v>44.97040022392654</v>
-      </c>
       <c r="U12" t="n">
-        <v>59.08630782930758</v>
+        <v>59.08630782930755</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50715706586121</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="W12" t="n">
-        <v>88.56281972747055</v>
+        <v>188.1785416903362</v>
       </c>
       <c r="X12" t="n">
-        <v>39.17115058992957</v>
+        <v>39.17115058992954</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.24252228448458</v>
+        <v>45.24252228448455</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28944752386644</v>
+        <v>25.28944752386641</v>
       </c>
       <c r="S13" t="n">
-        <v>57.29676508345544</v>
+        <v>57.29676508345541</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61991340433099</v>
+        <v>45.61991340433097</v>
       </c>
       <c r="U13" t="n">
         <v>110.5147946356656</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96725133490887</v>
+        <v>66.96725133490884</v>
       </c>
       <c r="W13" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77769155870149</v>
+        <v>43.77769155870146</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99950896462738</v>
+        <v>38.99950896462735</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6303957926862</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>168.8802695799879</v>
       </c>
       <c r="I14" t="n">
-        <v>62.87039510700848</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>15.59230886386285</v>
+        <v>16.74367530294978</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00878260204223</v>
       </c>
       <c r="V14" t="n">
-        <v>142.738019759611</v>
+        <v>142.7380197596109</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7546999762259</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6409504451651</v>
+        <v>171.4755006945841</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>43.16070937052907</v>
+        <v>9.376387674824855</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47830382393114</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44964351050417</v>
+        <v>75.34010610130827</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82929343736544</v>
+        <v>36.82929343736541</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08630782930758</v>
+        <v>59.08630782930755</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50715706586121</v>
+        <v>62.50715706586118</v>
       </c>
       <c r="W15" t="n">
-        <v>88.56281972747055</v>
+        <v>88.56281972747053</v>
       </c>
       <c r="X15" t="n">
-        <v>39.17115058992957</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24252228448458</v>
+        <v>45.24252228448455</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386644</v>
+        <v>25.28944752386641</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345544</v>
+        <v>57.29676508345541</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433099</v>
+        <v>45.61991340433097</v>
       </c>
       <c r="U16" t="n">
         <v>110.5147946356656</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490887</v>
+        <v>66.96725133490884</v>
       </c>
       <c r="W16" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870149</v>
+        <v>43.77769155870146</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462738</v>
+        <v>38.99950896462735</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>121.3863065040498</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426081</v>
+        <v>49.57010498426079</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1929,22 +1929,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47830382393114</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.87368945842319</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>31.29664852568505</v>
       </c>
       <c r="V18" t="n">
-        <v>85.36444961297101</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47830382393114</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.87368945842319</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>177.7540591817211</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>153.6066120087627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>47.26147671276595</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>6.87368945842319</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>24.42295906726188</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>6.87368945842319</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T27" t="n">
         <v>1.483027934777425</v>
@@ -2694,13 +2694,13 @@
         <v>27.1608915632732</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21655422488254</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>119.8169757369859</v>
+        <v>3.824885087341556</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896568</v>
+        <v>93.48855609929583</v>
       </c>
     </row>
     <row r="28">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>8.899385778414139</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.87368945842319</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>1.483027934777425</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671956</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V30" t="n">
         <v>27.1608915632732</v>
@@ -2934,10 +2934,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>3.824885087341556</v>
+        <v>207.1161118485448</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>9.896256781896568</v>
       </c>
     </row>
     <row r="31">
@@ -3035,19 +3035,19 @@
         <v>123.3742458308778</v>
       </c>
       <c r="E32" t="n">
-        <v>157.0809982502867</v>
+        <v>157.0809982502866</v>
       </c>
       <c r="F32" t="n">
         <v>188.801335828664</v>
       </c>
       <c r="G32" t="n">
-        <v>204.4403211379685</v>
+        <v>204.4403211379684</v>
       </c>
       <c r="H32" t="n">
-        <v>132.6241196181795</v>
+        <v>132.6241196181794</v>
       </c>
       <c r="I32" t="n">
-        <v>26.61424514520002</v>
+        <v>26.61424514519999</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.12049326832846</v>
+        <v>13.12049326832843</v>
       </c>
       <c r="T32" t="n">
-        <v>8.068238935115204</v>
+        <v>8.068238935115176</v>
       </c>
       <c r="U32" t="n">
-        <v>35.7526326402338</v>
+        <v>35.75263264023377</v>
       </c>
       <c r="V32" t="n">
         <v>106.4818697978025</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755569749</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U33" t="n">
-        <v>229.7609224655842</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>26.25100710405272</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>67.64602700370207</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628121106</v>
+        <v>2.915000628121078</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.986372322676118</v>
+        <v>8.98637232267609</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164698</v>
+        <v>21.04061512164695</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522536</v>
+        <v>9.363763442522508</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385716</v>
+        <v>74.25864467385713</v>
       </c>
       <c r="V34" t="n">
-        <v>30.7111013731004</v>
+        <v>30.71110137310038</v>
       </c>
       <c r="W34" t="n">
-        <v>75.91279327798583</v>
+        <v>75.9127932779858</v>
       </c>
       <c r="X34" t="n">
-        <v>7.52154159689303</v>
+        <v>7.521541596893002</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.74335900281892</v>
+        <v>2.743359002818892</v>
       </c>
     </row>
     <row r="35">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>47.44672108751905</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>6.87368945842319</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.1623279846278</v>
       </c>
     </row>
     <row r="37">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>18.76640679559665</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>47.5253468922074</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>6.87368945842319</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>5.007367213089688</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>237.2280716788486</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>71.66367113200725</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>46.5550412032175</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>68.27190435441698</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>25.69242462046208</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="C8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="D8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="E8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="F8" t="n">
         <v>3.833742919262513</v>
@@ -4820,34 +4820,34 @@
         <v>7.244751028117094</v>
       </c>
       <c r="P8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="R8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="S8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="T8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="U8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="V8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="W8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="X8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="C9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="D9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J9" t="n">
         <v>0.2813495544899843</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45619840956866</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L9" t="n">
-        <v>6.937899146382215</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M9" t="n">
-        <v>10.41959988319577</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="N9" t="n">
-        <v>10.41959988319577</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O9" t="n">
-        <v>13.90130062000932</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -4905,28 +4905,28 @@
         <v>10.51508435972668</v>
       </c>
       <c r="R9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="S9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="T9" t="n">
-        <v>7.386136284035041</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="U9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="V9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="W9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="X9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>430.9441282036414</v>
+        <v>239.8271572421543</v>
       </c>
       <c r="C11" t="n">
-        <v>430.9441282036414</v>
+        <v>239.8271572421543</v>
       </c>
       <c r="D11" t="n">
-        <v>430.9441282036414</v>
+        <v>78.58433320913785</v>
       </c>
       <c r="E11" t="n">
-        <v>249.1704640980146</v>
+        <v>78.58433320913785</v>
       </c>
       <c r="F11" t="n">
-        <v>249.1704640980146</v>
+        <v>78.58433320913785</v>
       </c>
       <c r="G11" t="n">
-        <v>249.1704640980146</v>
+        <v>78.58433320913785</v>
       </c>
       <c r="H11" t="n">
         <v>78.58433320913785</v>
@@ -5042,22 +5042,22 @@
         <v>115.4202186115222</v>
       </c>
       <c r="K11" t="n">
-        <v>267.9050913919197</v>
+        <v>285.1128385102956</v>
       </c>
       <c r="L11" t="n">
-        <v>314.616249730956</v>
+        <v>331.8239968493319</v>
       </c>
       <c r="M11" t="n">
-        <v>395.4673733443013</v>
+        <v>518.4251814748068</v>
       </c>
       <c r="N11" t="n">
-        <v>470.7843166479633</v>
+        <v>593.7421247784688</v>
       </c>
       <c r="O11" t="n">
-        <v>504.9946117247455</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4050806852704</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="Q11" t="n">
         <v>753.9441803049486</v>
@@ -5066,25 +5066,25 @@
         <v>737.0313769686358</v>
       </c>
       <c r="S11" t="n">
-        <v>687.1559797664772</v>
+        <v>709.093739617335</v>
       </c>
       <c r="T11" t="n">
-        <v>687.1559797664772</v>
+        <v>664.3216296204424</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4198357240102</v>
+        <v>591.5854855779755</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4198357240102</v>
+        <v>591.5854855779755</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4198357240102</v>
+        <v>430.217101763606</v>
       </c>
       <c r="X11" t="n">
-        <v>430.9441282036414</v>
+        <v>430.217101763606</v>
       </c>
       <c r="Y11" t="n">
-        <v>430.9441282036414</v>
+        <v>430.217101763606</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.5583699684788</v>
+        <v>24.54998226753822</v>
       </c>
       <c r="C12" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D12" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E12" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F12" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G12" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H12" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I12" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J12" t="n">
         <v>15.07888360609897</v>
       </c>
       <c r="K12" t="n">
-        <v>53.03690762936452</v>
+        <v>53.03690762936455</v>
       </c>
       <c r="L12" t="n">
         <v>170.3626975743615</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0310247576276</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N12" t="n">
         <v>538.6322093831025</v>
@@ -5139,31 +5139,31 @@
         <v>753.9441803049486</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0010596398747</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="R12" t="n">
-        <v>610.9183727939508</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="S12" t="n">
-        <v>420.5284282724991</v>
+        <v>740.3586818094899</v>
       </c>
       <c r="T12" t="n">
-        <v>375.1037815816642</v>
+        <v>549.9687372880383</v>
       </c>
       <c r="U12" t="n">
-        <v>315.4206423601414</v>
+        <v>490.2855980665155</v>
       </c>
       <c r="V12" t="n">
-        <v>252.2820998693725</v>
+        <v>299.8956535450638</v>
       </c>
       <c r="W12" t="n">
-        <v>162.8247062052608</v>
+        <v>109.8163185043201</v>
       </c>
       <c r="X12" t="n">
-        <v>123.2578874275541</v>
+        <v>70.24949972661352</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.5583699684788</v>
+        <v>24.54998226753822</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07888360609897</v>
+        <v>15.59847835882622</v>
       </c>
       <c r="C13" t="n">
-        <v>15.07888360609897</v>
+        <v>27.16621540761924</v>
       </c>
       <c r="D13" t="n">
-        <v>40.50117000188189</v>
+        <v>27.16621540761924</v>
       </c>
       <c r="E13" t="n">
-        <v>40.50117000188189</v>
+        <v>63.26718181856215</v>
       </c>
       <c r="F13" t="n">
-        <v>40.50117000188189</v>
+        <v>63.26718181856215</v>
       </c>
       <c r="G13" t="n">
-        <v>40.50117000188189</v>
+        <v>63.26718181856215</v>
       </c>
       <c r="H13" t="n">
-        <v>40.50117000188189</v>
+        <v>75.46112961112144</v>
       </c>
       <c r="I13" t="n">
-        <v>40.50117000188189</v>
+        <v>88.61620962186304</v>
       </c>
       <c r="J13" t="n">
-        <v>40.50117000188189</v>
+        <v>145.9373981644485</v>
       </c>
       <c r="K13" t="n">
-        <v>40.50117000188189</v>
+        <v>145.9373981644485</v>
       </c>
       <c r="L13" t="n">
-        <v>40.50117000188189</v>
+        <v>209.3775991250841</v>
       </c>
       <c r="M13" t="n">
-        <v>191.8925044801509</v>
+        <v>360.7689336033532</v>
       </c>
       <c r="N13" t="n">
-        <v>351.893682508503</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="O13" t="n">
-        <v>351.893682508503</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="P13" t="n">
-        <v>470.356886538532</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7701116317057</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="R13" t="n">
-        <v>495.2252151429517</v>
+        <v>495.2252151429514</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3496948566331</v>
+        <v>437.3496948566328</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2689742461977</v>
+        <v>391.2689742461975</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6378685536061</v>
+        <v>279.637868553606</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9941803365264</v>
+        <v>211.9941803365263</v>
       </c>
       <c r="W13" t="n">
-        <v>98.69221746804735</v>
+        <v>98.69221746804729</v>
       </c>
       <c r="X13" t="n">
-        <v>54.4723270047125</v>
+        <v>54.47232700471247</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07888360609897</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>249.1704640980146</v>
+        <v>346.9078385279921</v>
       </c>
       <c r="C14" t="n">
-        <v>249.1704640980146</v>
+        <v>346.9078385279921</v>
       </c>
       <c r="D14" t="n">
-        <v>249.1704640980146</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="E14" t="n">
-        <v>249.1704640980146</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="F14" t="n">
-        <v>249.1704640980146</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1704640980146</v>
+        <v>185.6650144949757</v>
       </c>
       <c r="H14" t="n">
-        <v>78.58433320913784</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I14" t="n">
         <v>15.07888360609897</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4202186115222</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1128385102955</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="L14" t="n">
-        <v>370.2766576793516</v>
+        <v>201.6800682315738</v>
       </c>
       <c r="M14" t="n">
-        <v>556.8778423048265</v>
+        <v>380.7418110539991</v>
       </c>
       <c r="N14" t="n">
-        <v>632.1947856084885</v>
+        <v>567.3429956794739</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4050806852706</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4050806852706</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9441803049488</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="R14" t="n">
-        <v>738.194373371754</v>
+        <v>737.0313769686358</v>
       </c>
       <c r="S14" t="n">
-        <v>738.194373371754</v>
+        <v>737.0313769686358</v>
       </c>
       <c r="T14" t="n">
-        <v>738.194373371754</v>
+        <v>737.0313769686358</v>
       </c>
       <c r="U14" t="n">
-        <v>738.194373371754</v>
+        <v>664.2952329261689</v>
       </c>
       <c r="V14" t="n">
-        <v>594.0145554327529</v>
+        <v>520.1154149871679</v>
       </c>
       <c r="W14" t="n">
-        <v>432.6461716183834</v>
+        <v>520.1154149871679</v>
       </c>
       <c r="X14" t="n">
-        <v>249.1704640980146</v>
+        <v>346.9078385279921</v>
       </c>
       <c r="Y14" t="n">
-        <v>249.1704640980146</v>
+        <v>346.9078385279921</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>220.1329901019063</v>
+        <v>185.3300985065065</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5363139700587</v>
+        <v>175.8589998450672</v>
       </c>
       <c r="D15" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E15" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F15" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G15" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H15" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I15" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J15" t="n">
         <v>15.07888360609897</v>
       </c>
       <c r="K15" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936452</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M15" t="n">
         <v>352.0310247576276</v>
@@ -5382,25 +5382,25 @@
         <v>747.0010596398748</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4155611444161</v>
+        <v>670.8999423658261</v>
       </c>
       <c r="T15" t="n">
-        <v>696.2142546420267</v>
+        <v>633.6986358634367</v>
       </c>
       <c r="U15" t="n">
-        <v>636.531115420504</v>
+        <v>574.015496641914</v>
       </c>
       <c r="V15" t="n">
-        <v>573.392572929735</v>
+        <v>510.8769541511451</v>
       </c>
       <c r="W15" t="n">
-        <v>483.9351792656233</v>
+        <v>421.4195604870334</v>
       </c>
       <c r="X15" t="n">
-        <v>444.3683604879167</v>
+        <v>231.0296159655818</v>
       </c>
       <c r="Y15" t="n">
-        <v>398.6688430288414</v>
+        <v>185.3300985065065</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07888360609897</v>
+        <v>15.59847835882622</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07888360609897</v>
+        <v>15.59847835882622</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07888360609897</v>
+        <v>15.59847835882622</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07888360609897</v>
+        <v>51.69944476976913</v>
       </c>
       <c r="F16" t="n">
-        <v>15.07888360609897</v>
+        <v>90.52217758455259</v>
       </c>
       <c r="G16" t="n">
-        <v>15.07888360609897</v>
+        <v>90.52217758455259</v>
       </c>
       <c r="H16" t="n">
-        <v>15.07888360609897</v>
+        <v>90.52217758455259</v>
       </c>
       <c r="I16" t="n">
-        <v>15.07888360609897</v>
+        <v>103.6772575952942</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07888360609897</v>
+        <v>160.9984461378796</v>
       </c>
       <c r="K16" t="n">
-        <v>15.07888360609897</v>
+        <v>242.3057295733243</v>
       </c>
       <c r="L16" t="n">
-        <v>19.71201379995026</v>
+        <v>242.3057295733243</v>
       </c>
       <c r="M16" t="n">
-        <v>171.1033482782193</v>
+        <v>242.3057295733243</v>
       </c>
       <c r="N16" t="n">
-        <v>331.1045263065714</v>
+        <v>402.3069076016765</v>
       </c>
       <c r="O16" t="n">
-        <v>470.356886538532</v>
+        <v>402.3069076016765</v>
       </c>
       <c r="P16" t="n">
-        <v>470.356886538532</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7701116317057</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="R16" t="n">
-        <v>495.2252151429517</v>
+        <v>495.2252151429514</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566331</v>
+        <v>437.3496948566328</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461977</v>
+        <v>391.2689742461975</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6378685536061</v>
+        <v>279.637868553606</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365264</v>
+        <v>211.9941803365263</v>
       </c>
       <c r="W16" t="n">
-        <v>98.69221746804735</v>
+        <v>98.69221746804729</v>
       </c>
       <c r="X16" t="n">
-        <v>54.4723270047125</v>
+        <v>54.47232700471247</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07888360609897</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417493</v>
+        <v>463.3662739417491</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731527</v>
+        <v>410.0798406731525</v>
       </c>
       <c r="D17" t="n">
-        <v>369.352334413598</v>
+        <v>369.3523344135978</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879738</v>
+        <v>294.5776034879736</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336856</v>
+        <v>187.7621275336854</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151393</v>
+        <v>65.14969672151392</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609897</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95425539993043</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J17" t="n">
-        <v>209.1891892310848</v>
+        <v>201.6800682315738</v>
       </c>
       <c r="K17" t="n">
-        <v>209.1891892310848</v>
+        <v>295.229584271496</v>
       </c>
       <c r="L17" t="n">
-        <v>255.9003475701211</v>
+        <v>341.9407426105323</v>
       </c>
       <c r="M17" t="n">
-        <v>336.7514711834663</v>
+        <v>422.7918662238775</v>
       </c>
       <c r="N17" t="n">
-        <v>412.0684144871283</v>
+        <v>498.1088095275396</v>
       </c>
       <c r="O17" t="n">
-        <v>446.2787095639105</v>
+        <v>684.7099941530143</v>
       </c>
       <c r="P17" t="n">
-        <v>446.2787095639105</v>
+        <v>684.7099941530143</v>
       </c>
       <c r="Q17" t="n">
-        <v>632.8798941893854</v>
+        <v>684.7099941530143</v>
       </c>
       <c r="R17" t="n">
-        <v>632.8798941893854</v>
+        <v>684.7099941530143</v>
       </c>
       <c r="S17" t="n">
-        <v>632.8798941893854</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1158121312008</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9441803049488</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394095</v>
+        <v>730.2796801394093</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4266140985018</v>
+        <v>689.4266140985015</v>
       </c>
       <c r="X17" t="n">
-        <v>626.4662243515947</v>
+        <v>626.4662243515944</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342394</v>
+        <v>540.7756799342392</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>660.774342859096</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="C18" t="n">
-        <v>660.774342859096</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D18" t="n">
-        <v>660.774342859096</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E18" t="n">
-        <v>487.2111389805105</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F18" t="n">
-        <v>326.7834226977546</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G18" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I18" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J18" t="n">
         <v>15.07888360609897</v>
       </c>
       <c r="K18" t="n">
-        <v>53.03690762936453</v>
+        <v>53.03690762936461</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3626975743615</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0310247576276</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N18" t="n">
         <v>538.6322093831025</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3253369263737</v>
+        <v>670.3253369263736</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9441803049488</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0010596398748</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0010596398748</v>
+        <v>617.8614934590248</v>
       </c>
       <c r="S18" t="n">
-        <v>747.0010596398748</v>
+        <v>427.4715489375731</v>
       </c>
       <c r="T18" t="n">
-        <v>747.0010596398748</v>
+        <v>237.0816044161214</v>
       </c>
       <c r="U18" t="n">
-        <v>747.0010596398748</v>
+        <v>205.4688281275507</v>
       </c>
       <c r="V18" t="n">
-        <v>660.774342859096</v>
+        <v>205.4688281275507</v>
       </c>
       <c r="W18" t="n">
-        <v>660.774342859096</v>
+        <v>205.4688281275507</v>
       </c>
       <c r="X18" t="n">
-        <v>660.774342859096</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Y18" t="n">
-        <v>660.774342859096</v>
+        <v>15.07888360609897</v>
       </c>
     </row>
     <row r="19">
@@ -5747,46 +5747,46 @@
         <v>15.07888360609897</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95425539993043</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J20" t="n">
-        <v>107.6483648312352</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K20" t="n">
-        <v>107.6483648312352</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="L20" t="n">
-        <v>154.3595231702716</v>
+        <v>196.4462062119374</v>
       </c>
       <c r="M20" t="n">
-        <v>235.2106467836168</v>
+        <v>277.2973298252826</v>
       </c>
       <c r="N20" t="n">
-        <v>310.5275900872788</v>
+        <v>463.8985144507574</v>
       </c>
       <c r="O20" t="n">
-        <v>344.737885164061</v>
+        <v>498.1088095275396</v>
       </c>
       <c r="P20" t="n">
-        <v>344.737885164061</v>
+        <v>684.7099941530143</v>
       </c>
       <c r="Q20" t="n">
-        <v>531.3390697895359</v>
+        <v>684.7099941530143</v>
       </c>
       <c r="R20" t="n">
-        <v>632.8798941893854</v>
+        <v>684.7099941530143</v>
       </c>
       <c r="S20" t="n">
-        <v>632.8798941893854</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1158121312008</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9441803049488</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394095</v>
+        <v>730.2796801394094</v>
       </c>
       <c r="W20" t="n">
         <v>689.4266140985017</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>591.8428656916296</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="C21" t="n">
-        <v>402.4305914245933</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D21" t="n">
-        <v>241.6504751856251</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J21" t="n">
         <v>15.07888360609897</v>
       </c>
       <c r="K21" t="n">
-        <v>53.03690762936453</v>
+        <v>53.03690762936461</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3626975743615</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0310247576276</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N21" t="n">
         <v>538.6322093831025</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3253369263737</v>
+        <v>670.3253369263736</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9441803049488</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0010596398748</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0010596398748</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0010596398748</v>
+        <v>753.9441803049486</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0010596398748</v>
+        <v>563.554235783497</v>
       </c>
       <c r="U21" t="n">
-        <v>747.0010596398748</v>
+        <v>373.1642912620453</v>
       </c>
       <c r="V21" t="n">
-        <v>747.0010596398748</v>
+        <v>193.6147365330341</v>
       </c>
       <c r="W21" t="n">
-        <v>747.0010596398748</v>
+        <v>193.6147365330341</v>
       </c>
       <c r="X21" t="n">
-        <v>747.0010596398748</v>
+        <v>193.6147365330341</v>
       </c>
       <c r="Y21" t="n">
-        <v>591.8428656916296</v>
+        <v>193.6147365330341</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.36627394175</v>
+        <v>463.3662739417491</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731535</v>
+        <v>410.0798406731525</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3523344135986</v>
+        <v>369.3523344135979</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879739</v>
+        <v>294.5776034879736</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336857</v>
+        <v>187.7621275336858</v>
       </c>
       <c r="G23" t="n">
-        <v>65.14969672151395</v>
+        <v>65.14969672151393</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95425539993045</v>
+        <v>38.98325507089039</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5554400254053</v>
+        <v>38.98325507089039</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5554400254053</v>
+        <v>38.98325507089039</v>
       </c>
       <c r="L23" t="n">
-        <v>304.2665983644417</v>
+        <v>85.69441340992674</v>
       </c>
       <c r="M23" t="n">
-        <v>385.1177219777869</v>
+        <v>272.2955980354016</v>
       </c>
       <c r="N23" t="n">
-        <v>460.4346652814489</v>
+        <v>458.8967826608763</v>
       </c>
       <c r="O23" t="n">
-        <v>494.6449603582311</v>
+        <v>493.1070777376585</v>
       </c>
       <c r="P23" t="n">
-        <v>494.6449603582311</v>
+        <v>493.1070777376585</v>
       </c>
       <c r="Q23" t="n">
-        <v>679.7082623631338</v>
+        <v>679.7082623631334</v>
       </c>
       <c r="R23" t="n">
-        <v>679.7082623631338</v>
+        <v>679.7082623631334</v>
       </c>
       <c r="S23" t="n">
-        <v>679.7082623631338</v>
+        <v>679.7082623631334</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394102</v>
+        <v>730.2796801394095</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985026</v>
+        <v>689.4266140985017</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515954</v>
+        <v>626.4662243515947</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342401</v>
+        <v>540.7756799342392</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>747.0010596398753</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="C24" t="n">
-        <v>557.588785372839</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D24" t="n">
-        <v>396.8086691338707</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E24" t="n">
-        <v>223.2454652552852</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F24" t="n">
-        <v>62.81774897252924</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G24" t="n">
-        <v>62.81774897252924</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H24" t="n">
-        <v>62.81774897252924</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I24" t="n">
-        <v>62.81774897252924</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K24" t="n">
-        <v>53.03690762936489</v>
+        <v>53.03690762936453</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3626975743618</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M24" t="n">
-        <v>352.031024757628</v>
+        <v>352.0310247576276</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6322093831029</v>
+        <v>538.6322093831025</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3253369263741</v>
+        <v>670.3253369263737</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0010596398753</v>
+        <v>747.0010596398748</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0010596398753</v>
+        <v>610.918372793951</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0010596398753</v>
+        <v>420.5284282724992</v>
       </c>
       <c r="T24" t="n">
-        <v>747.0010596398753</v>
+        <v>395.8587726490024</v>
       </c>
       <c r="U24" t="n">
-        <v>747.0010596398753</v>
+        <v>395.8587726490024</v>
       </c>
       <c r="V24" t="n">
-        <v>747.0010596398753</v>
+        <v>205.4688281275507</v>
       </c>
       <c r="W24" t="n">
-        <v>747.0010596398753</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="X24" t="n">
-        <v>747.0010596398753</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Y24" t="n">
-        <v>747.0010596398753</v>
+        <v>15.07888360609897</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C26" t="n">
-        <v>882.77898860731</v>
+        <v>882.7789886073099</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617562</v>
+        <v>757.2394630617561</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501328</v>
+        <v>597.6527128501327</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098455</v>
+        <v>406.0252176098454</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116749</v>
+        <v>198.6007675116748</v>
       </c>
       <c r="H26" t="n">
         <v>63.71793511026087</v>
@@ -6224,10 +6224,10 @@
         <v>35.91578399468464</v>
       </c>
       <c r="J26" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476701</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940055</v>
+        <v>375.9353445940056</v>
       </c>
       <c r="L26" t="n">
         <v>633.9996519916497</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>369.9067041560261</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C27" t="n">
-        <v>369.9067041560261</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D27" t="n">
-        <v>369.9067041560261</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E27" t="n">
-        <v>196.3435002774405</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F27" t="n">
         <v>35.91578399468464</v>
@@ -6327,28 +6327,28 @@
         <v>786.1332122026937</v>
       </c>
       <c r="R27" t="n">
-        <v>786.1332122026937</v>
+        <v>650.0505253567699</v>
       </c>
       <c r="S27" t="n">
-        <v>786.1332122026937</v>
+        <v>456.5238512557141</v>
       </c>
       <c r="T27" t="n">
-        <v>784.635204187767</v>
+        <v>455.0258432407874</v>
       </c>
       <c r="U27" t="n">
-        <v>760.6553634537069</v>
+        <v>431.0460025067272</v>
       </c>
       <c r="V27" t="n">
-        <v>733.2201194504006</v>
+        <v>403.610758503421</v>
       </c>
       <c r="W27" t="n">
-        <v>679.4660242737516</v>
+        <v>134.2121892337123</v>
       </c>
       <c r="X27" t="n">
-        <v>558.438776054574</v>
+        <v>130.3486689434683</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.4425570829612</v>
+        <v>35.91578399468464</v>
       </c>
     </row>
     <row r="28">
@@ -6394,16 +6394,16 @@
         <v>35.91578399468464</v>
       </c>
       <c r="N28" t="n">
-        <v>230.9097648705989</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="O28" t="n">
-        <v>230.9097648705989</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1390261192988</v>
+        <v>189.3717908722757</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1390261192988</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="R28" t="n">
         <v>266.1390261192988</v>
@@ -6461,19 +6461,19 @@
         <v>35.91578399468465</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2499218476707</v>
+        <v>171.24992184767</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940063</v>
+        <v>375.9353445940055</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916504</v>
+        <v>633.9996519916494</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636034</v>
+        <v>926.2039246636025</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.874017025873</v>
+        <v>1212.874017025872</v>
       </c>
       <c r="O29" t="n">
         <v>1458.437461161263</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>234.3173368257756</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C30" t="n">
-        <v>44.90506255873933</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D30" t="n">
-        <v>44.90506255873933</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E30" t="n">
-        <v>44.90506255873933</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F30" t="n">
-        <v>44.90506255873933</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G30" t="n">
-        <v>44.90506255873933</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H30" t="n">
-        <v>44.90506255873933</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I30" t="n">
-        <v>44.90506255873933</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J30" t="n">
         <v>35.91578399468465</v>
@@ -6561,31 +6561,31 @@
         <v>793.0763328677676</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1332122026937</v>
+        <v>793.0763328677676</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1332122026937</v>
+        <v>793.0763328677676</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1332122026937</v>
+        <v>793.0763328677676</v>
       </c>
       <c r="T30" t="n">
-        <v>784.635204187767</v>
+        <v>791.578324852841</v>
       </c>
       <c r="U30" t="n">
-        <v>760.6553634537069</v>
+        <v>551.9540100257211</v>
       </c>
       <c r="V30" t="n">
-        <v>733.2201194504006</v>
+        <v>524.5187660224149</v>
       </c>
       <c r="W30" t="n">
-        <v>463.8215501806919</v>
+        <v>255.1201967527062</v>
       </c>
       <c r="X30" t="n">
-        <v>459.958029890448</v>
+        <v>45.91200296629734</v>
       </c>
       <c r="Y30" t="n">
-        <v>234.3173368257756</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="31">
@@ -6628,16 +6628,16 @@
         <v>35.91578399468465</v>
       </c>
       <c r="M31" t="n">
-        <v>222.2999213205158</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="N31" t="n">
-        <v>222.2999213205158</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1390261192988</v>
+        <v>180.7329981785629</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1390261192988</v>
+        <v>180.7329981785629</v>
       </c>
       <c r="Q31" t="n">
         <v>266.1390261192988</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.162565128079</v>
+        <v>1014.162565128078</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848166</v>
+        <v>876.9831877848162</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505966</v>
+        <v>752.3627374505961</v>
       </c>
       <c r="E32" t="n">
-        <v>593.695062450307</v>
+        <v>593.6950624503066</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213535</v>
+        <v>402.9866424213531</v>
       </c>
       <c r="G32" t="n">
-        <v>196.4812675345174</v>
+        <v>196.481267534517</v>
       </c>
       <c r="H32" t="n">
-        <v>62.5175103444371</v>
+        <v>62.51751034443707</v>
       </c>
       <c r="I32" t="n">
         <v>35.63443444019466</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8693579078083</v>
+        <v>149.9761592061451</v>
       </c>
       <c r="K32" t="n">
-        <v>377.455566268772</v>
+        <v>355.5623675671088</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4206592810444</v>
+        <v>614.5274605793812</v>
       </c>
       <c r="M32" t="n">
-        <v>929.5257175676256</v>
+        <v>907.6325188659625</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.096595544524</v>
+        <v>1195.203396842861</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.560825294542</v>
+        <v>1441.667626592879</v>
       </c>
       <c r="P32" t="n">
         <v>1638.971684015594</v>
@@ -6728,19 +6728,19 @@
         <v>1768.468698506371</v>
       </c>
       <c r="T32" t="n">
-        <v>1760.318962208274</v>
+        <v>1760.318962208275</v>
       </c>
       <c r="U32" t="n">
-        <v>1724.205191864605</v>
+        <v>1724.205191864604</v>
       </c>
       <c r="V32" t="n">
         <v>1616.6477476244</v>
       </c>
       <c r="W32" t="n">
-        <v>1491.901737508827</v>
+        <v>1491.901737508826</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.048403687255</v>
+        <v>1345.048403687254</v>
       </c>
       <c r="Y32" t="n">
         <v>1175.464915195234</v>
@@ -6804,22 +6804,22 @@
         <v>792.7949833132777</v>
       </c>
       <c r="S33" t="n">
-        <v>792.7949833132777</v>
+        <v>599.268309212222</v>
       </c>
       <c r="T33" t="n">
-        <v>792.2160505096848</v>
+        <v>382.1258271042357</v>
       </c>
       <c r="U33" t="n">
-        <v>560.1343106454583</v>
+        <v>142.5015122771158</v>
       </c>
       <c r="V33" t="n">
-        <v>317.0545925490924</v>
+        <v>115.9853434851434</v>
       </c>
       <c r="W33" t="n">
-        <v>47.65602327938377</v>
+        <v>47.65602327938372</v>
       </c>
       <c r="X33" t="n">
-        <v>44.71157820047357</v>
+        <v>44.71157820047354</v>
       </c>
       <c r="Y33" t="n">
         <v>35.63443444019466</v>
@@ -6856,49 +6856,49 @@
         <v>35.63443444019466</v>
       </c>
       <c r="J34" t="n">
-        <v>128.8492114449705</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="K34" t="n">
-        <v>128.8492114449705</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="L34" t="n">
-        <v>259.4241500854723</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="M34" t="n">
-        <v>259.4241500854723</v>
+        <v>222.9193573806541</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4241500854723</v>
+        <v>222.9193573806541</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4241500854723</v>
+        <v>222.9193573806541</v>
       </c>
       <c r="P34" t="n">
-        <v>259.4241500854723</v>
+        <v>222.9193573806541</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.4241500854723</v>
+        <v>259.4241500854721</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854723</v>
+        <v>259.4241500854721</v>
       </c>
       <c r="S34" t="n">
-        <v>238.1710034979501</v>
+        <v>238.17100349795</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863112</v>
+        <v>228.7126565863111</v>
       </c>
       <c r="U34" t="n">
-        <v>153.7039245925161</v>
+        <v>153.703924592516</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742328</v>
+        <v>122.6826100742327</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090455016</v>
+        <v>46.00302090455011</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001175</v>
+        <v>38.40550414001172</v>
       </c>
       <c r="Y34" t="n">
         <v>35.63443444019466</v>
@@ -6932,40 +6932,40 @@
         <v>20.83690038858567</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57334671175843</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="J35" t="n">
-        <v>244.8928191962929</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="K35" t="n">
-        <v>244.8928191962929</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="L35" t="n">
-        <v>291.6039775353292</v>
+        <v>278.6935426973334</v>
       </c>
       <c r="M35" t="n">
-        <v>372.4551011486744</v>
+        <v>536.5501850060812</v>
       </c>
       <c r="N35" t="n">
-        <v>447.7720444523364</v>
+        <v>611.8671283097432</v>
       </c>
       <c r="O35" t="n">
-        <v>481.9823395291186</v>
+        <v>646.0774233865253</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0441875457819</v>
+        <v>768.135529178062</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5614246445713</v>
+        <v>948.6527662768514</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9633235737621</v>
+        <v>948.6527662768514</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0585842550377</v>
+        <v>992.748026958127</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.155576726194</v>
+        <v>1041.845019429284</v>
       </c>
       <c r="U35" t="n">
         <v>1041.845019429284</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>592.5184756696597</v>
+        <v>210.2491746556219</v>
       </c>
       <c r="C36" t="n">
-        <v>403.1062014026234</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="D36" t="n">
-        <v>242.3260851636551</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="E36" t="n">
-        <v>68.76288128506957</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="F36" t="n">
         <v>20.83690038858567</v>
@@ -7038,28 +7038,28 @@
         <v>771.0543285965947</v>
       </c>
       <c r="R36" t="n">
-        <v>771.0543285965947</v>
+        <v>634.9716417506709</v>
       </c>
       <c r="S36" t="n">
-        <v>771.0543285965947</v>
+        <v>634.9716417506709</v>
       </c>
       <c r="T36" t="n">
-        <v>771.0543285965947</v>
+        <v>634.9716417506709</v>
       </c>
       <c r="U36" t="n">
-        <v>771.0543285965947</v>
+        <v>634.9716417506709</v>
       </c>
       <c r="V36" t="n">
-        <v>771.0543285965947</v>
+        <v>634.9716417506709</v>
       </c>
       <c r="W36" t="n">
-        <v>771.0543285965947</v>
+        <v>634.9716417506709</v>
       </c>
       <c r="X36" t="n">
-        <v>771.0543285965947</v>
+        <v>415.4636473673672</v>
       </c>
       <c r="Y36" t="n">
-        <v>771.0543285965947</v>
+        <v>210.2491746556219</v>
       </c>
     </row>
     <row r="37">
@@ -7102,19 +7102,19 @@
         <v>20.83690038858567</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03802837397802</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03802837397802</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03802837397802</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03802837397802</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03802837397802</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="R37" t="n">
         <v>56.03802837397802</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.020375637971</v>
+        <v>623.0203756379713</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837518</v>
+        <v>544.0845948837521</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7077411385745</v>
+        <v>477.7077411385747</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2836627273277</v>
+        <v>377.2836627273279</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874168</v>
+        <v>244.8188392874169</v>
       </c>
       <c r="G38" t="n">
         <v>96.55706098962324</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="I38" t="n">
         <v>51.57334671175843</v>
       </c>
       <c r="J38" t="n">
-        <v>244.8928191962929</v>
+        <v>51.57334671175843</v>
       </c>
       <c r="K38" t="n">
-        <v>432.9546672129562</v>
+        <v>309.4299890205062</v>
       </c>
       <c r="L38" t="n">
-        <v>479.6658255519926</v>
+        <v>567.2866313292541</v>
       </c>
       <c r="M38" t="n">
-        <v>560.5169491653378</v>
+        <v>648.1377549425993</v>
       </c>
       <c r="N38" t="n">
-        <v>635.8338924689998</v>
+        <v>734.8913846493795</v>
       </c>
       <c r="O38" t="n">
-        <v>670.0441875457819</v>
+        <v>992.7480269581272</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0441875457819</v>
+        <v>992.7480269581272</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5614246445713</v>
+        <v>992.7480269581272</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9633235737621</v>
+        <v>992.7480269581272</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0585842550377</v>
+        <v>992.7480269581272</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.155576726194</v>
+        <v>1041.845019429284</v>
       </c>
       <c r="U38" t="n">
         <v>1041.845019429284</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781217</v>
+        <v>992.5311717781219</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515913</v>
+        <v>926.0287582515915</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190616</v>
+        <v>837.4190210190618</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160837</v>
+        <v>726.0791291160839</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68.84230128980528</v>
+        <v>213.3560707273699</v>
       </c>
       <c r="C39" t="n">
-        <v>68.84230128980528</v>
+        <v>213.3560707273699</v>
       </c>
       <c r="D39" t="n">
-        <v>68.84230128980528</v>
+        <v>213.3560707273699</v>
       </c>
       <c r="E39" t="n">
-        <v>68.84230128980528</v>
+        <v>39.79286684878431</v>
       </c>
       <c r="F39" t="n">
-        <v>68.84230128980528</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="G39" t="n">
-        <v>68.84230128980528</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="H39" t="n">
-        <v>68.84230128980528</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="I39" t="n">
-        <v>68.84230128980528</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="K39" t="n">
         <v>58.79492441185123</v>
@@ -7275,28 +7275,28 @@
         <v>771.0543285965947</v>
       </c>
       <c r="R39" t="n">
-        <v>771.0543285965947</v>
+        <v>634.9716417506709</v>
       </c>
       <c r="S39" t="n">
-        <v>771.0543285965947</v>
+        <v>634.9716417506709</v>
       </c>
       <c r="T39" t="n">
-        <v>771.0543285965947</v>
+        <v>634.9716417506709</v>
       </c>
       <c r="U39" t="n">
-        <v>531.4300137694748</v>
+        <v>634.9716417506709</v>
       </c>
       <c r="V39" t="n">
-        <v>288.3502956731089</v>
+        <v>391.8919236543049</v>
       </c>
       <c r="W39" t="n">
-        <v>288.3502956731089</v>
+        <v>391.8919236543049</v>
       </c>
       <c r="X39" t="n">
-        <v>68.84230128980528</v>
+        <v>391.8919236543049</v>
       </c>
       <c r="Y39" t="n">
-        <v>68.84230128980528</v>
+        <v>391.8919236543049</v>
       </c>
     </row>
     <row r="40">
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03802837397802</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03802837397802</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03802837397802</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03802837397802</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="R40" t="n">
         <v>56.03802837397802</v>
@@ -7369,13 +7369,13 @@
         <v>39.27289296922562</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858568</v>
       </c>
     </row>
     <row r="41">
@@ -7409,31 +7409,31 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6484249575439</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K41" t="n">
-        <v>190.6484249575439</v>
+        <v>259.999709850894</v>
       </c>
       <c r="L41" t="n">
-        <v>237.3595832965802</v>
+        <v>545.3129055569143</v>
       </c>
       <c r="M41" t="n">
-        <v>365.7208626905152</v>
+        <v>864.7660665372435</v>
       </c>
       <c r="N41" t="n">
-        <v>679.6398433611612</v>
+        <v>940.0830098409056</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4521758049274</v>
+        <v>974.2933049176877</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.104335921391</v>
+        <v>1189.463150279493</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.885126697007</v>
+        <v>1339.24394105511</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.550579303025</v>
+        <v>1384.909393661128</v>
       </c>
       <c r="S41" t="n">
         <v>1384.909393661128</v>
@@ -7509,28 +7509,28 @@
         <v>785.2259476692652</v>
       </c>
       <c r="Q42" t="n">
-        <v>780.1680009893767</v>
+        <v>785.2259476692652</v>
       </c>
       <c r="R42" t="n">
-        <v>780.1680009893767</v>
+        <v>785.2259476692652</v>
       </c>
       <c r="S42" t="n">
-        <v>780.1680009893767</v>
+        <v>785.2259476692652</v>
       </c>
       <c r="T42" t="n">
-        <v>780.1680009893767</v>
+        <v>785.2259476692652</v>
       </c>
       <c r="U42" t="n">
-        <v>540.5436861622568</v>
+        <v>545.6016328421454</v>
       </c>
       <c r="V42" t="n">
-        <v>297.4639680658909</v>
+        <v>545.6016328421454</v>
       </c>
       <c r="W42" t="n">
-        <v>28.06539879618224</v>
+        <v>473.2140862441582</v>
       </c>
       <c r="X42" t="n">
-        <v>28.06539879618224</v>
+        <v>253.7060918608546</v>
       </c>
       <c r="Y42" t="n">
         <v>28.06539879618224</v>
@@ -7573,22 +7573,22 @@
         <v>28.06539879618224</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06539879618224</v>
+        <v>92.92066865790531</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06539879618224</v>
+        <v>92.92066865790531</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06539879618224</v>
+        <v>92.92066865790531</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1258067652159</v>
+        <v>92.92066865790531</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1258067652159</v>
+        <v>92.92066865790531</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1258067652159</v>
+        <v>92.92066865790531</v>
       </c>
       <c r="R43" t="n">
         <v>130.1258067652159</v>
@@ -7649,31 +7649,31 @@
         <v>190.6484249575439</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5827360122556</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="L44" t="n">
-        <v>707.895931718276</v>
+        <v>475.9616206635642</v>
       </c>
       <c r="M44" t="n">
-        <v>788.7470553316211</v>
+        <v>556.8127442769095</v>
       </c>
       <c r="N44" t="n">
-        <v>864.0639986352832</v>
+        <v>870.7317249475554</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4521758049274</v>
+        <v>1029.836988917032</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.104335921391</v>
+        <v>1253.489149033496</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.885126697007</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.550579303025</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.909393661128</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="T44" t="n">
         <v>1403.269939809112</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>712.2487094635283</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C45" t="n">
-        <v>522.8364351964919</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D45" t="n">
-        <v>362.0563189575237</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E45" t="n">
-        <v>188.4931150789382</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F45" t="n">
         <v>28.06539879618224</v>
@@ -7752,25 +7752,25 @@
         <v>785.2259476692652</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2259476692652</v>
+        <v>591.6992735682095</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2259476692652</v>
+        <v>522.7377540182933</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2259476692652</v>
+        <v>522.7377540182933</v>
       </c>
       <c r="V45" t="n">
-        <v>785.2259476692652</v>
+        <v>279.6580359219274</v>
       </c>
       <c r="W45" t="n">
-        <v>759.2740036081924</v>
+        <v>253.7060918608546</v>
       </c>
       <c r="X45" t="n">
-        <v>759.2740036081924</v>
+        <v>253.7060918608546</v>
       </c>
       <c r="Y45" t="n">
-        <v>759.2740036081924</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="46">
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.373473584151</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5532127625713</v>
+        <v>172.4111170279804</v>
       </c>
       <c r="M9" t="n">
         <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
-        <v>177.484287653347</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>163.6166327065838</v>
+        <v>166.9656464766077</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1338058733769</v>
+        <v>292.1338058733768</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3734735841513</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.133805873377</v>
+        <v>292.1338058733768</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9454765282923</v>
+        <v>7.459431452055099</v>
       </c>
       <c r="C11" t="n">
         <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6303957926862</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>13.38122074752453</v>
+        <v>193.3371482120951</v>
       </c>
       <c r="F11" t="n">
         <v>225.0574857904724</v>
@@ -23273,7 +23273,7 @@
         <v>240.6964710997769</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8802695799879</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>21.71838225234919</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692368</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.738019759611</v>
+        <v>142.7380197596109</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7546999762259</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1438035689089</v>
+        <v>204.1438035689088</v>
       </c>
     </row>
     <row r="12">
@@ -23498,7 +23498,7 @@
         <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926862</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>193.3371482120951</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.87039510700844</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.151366439086956</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013692</v>
+        <v>49.37664323013691</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692367</v>
+        <v>44.32438889692364</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204226</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.7546999762258</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>10.16544975058096</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1438035689089</v>
+        <v>204.1438035689088</v>
       </c>
     </row>
     <row r="15">
@@ -26320,10 +26320,10 @@
         <v>176493.3196509045</v>
       </c>
       <c r="E2" t="n">
-        <v>151944.5574962893</v>
+        <v>151944.5574962897</v>
       </c>
       <c r="F2" t="n">
-        <v>151944.5574962894</v>
+        <v>151944.5574962897</v>
       </c>
       <c r="G2" t="n">
         <v>176743.7097717072</v>
@@ -26341,7 +26341,7 @@
         <v>176743.7097717072</v>
       </c>
       <c r="L2" t="n">
-        <v>176743.709771707</v>
+        <v>176743.7097717072</v>
       </c>
       <c r="M2" t="n">
         <v>176743.7097717073</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658169</v>
+        <v>95448.13167658167</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710103</v>
+        <v>143490.4163710104</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>96176.03924395805</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.92849852183</v>
+        <v>46128.9284985218</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134125</v>
+        <v>72249.07655134128</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>278809.5434581144</v>
       </c>
       <c r="F4" t="n">
-        <v>278809.5434581143</v>
+        <v>278809.5434581144</v>
       </c>
       <c r="G4" t="n">
         <v>349424.6097629186</v>
@@ -26448,7 +26448,7 @@
         <v>350137.7173335238</v>
       </c>
       <c r="M4" t="n">
-        <v>349329.3035757351</v>
+        <v>349329.303575735</v>
       </c>
       <c r="N4" t="n">
         <v>349329.3035757351</v>
@@ -26488,7 +26488,7 @@
         <v>38671.63774774208</v>
       </c>
       <c r="I5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.63774774208</v>
       </c>
       <c r="J5" t="n">
         <v>47448.92101020608</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250455.8146770634</v>
+        <v>-250460.2810612685</v>
       </c>
       <c r="C6" t="n">
-        <v>-250455.8146770634</v>
+        <v>-250460.2810612686</v>
       </c>
       <c r="D6" t="n">
-        <v>-251376.0401272934</v>
+        <v>-251379.1700038035</v>
       </c>
       <c r="E6" t="n">
-        <v>-434516.4807495486</v>
+        <v>-434826.470152991</v>
       </c>
       <c r="F6" t="n">
-        <v>-155506.3374821688</v>
+        <v>-155816.3268856113</v>
       </c>
       <c r="G6" t="n">
         <v>-306800.6694155351</v>
@@ -26543,25 +26543,25 @@
         <v>-211352.5377389534</v>
       </c>
       <c r="J6" t="n">
-        <v>-364349.6032504531</v>
+        <v>-364349.6032504532</v>
       </c>
       <c r="K6" t="n">
-        <v>-220859.1868794429</v>
+        <v>-220859.1868794428</v>
       </c>
       <c r="L6" t="n">
-        <v>-316881.6352311707</v>
+        <v>-316881.6352311706</v>
       </c>
       <c r="M6" t="n">
-        <v>-259627.5009611505</v>
+        <v>-259627.5009611503</v>
       </c>
       <c r="N6" t="n">
         <v>-213498.5724626287</v>
       </c>
       <c r="O6" t="n">
-        <v>-289018.2539938887</v>
+        <v>-289018.2539938886</v>
       </c>
       <c r="P6" t="n">
-        <v>-216769.1774425474</v>
+        <v>-216769.1774425475</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G2" t="n">
         <v>297.4519284452682</v>
@@ -26808,7 +26808,7 @@
         <v>188.4860450762372</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="J4" t="n">
         <v>448.9472999335579</v>
@@ -26823,7 +26823,7 @@
         <v>260.4612548573209</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4612548573209</v>
+        <v>260.461254857321</v>
       </c>
       <c r="O4" t="n">
         <v>350.8174849522781</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640193</v>
+        <v>94.17786475640196</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.2200490549476</v>
       </c>
       <c r="M2" t="n">
-        <v>57.66116062315228</v>
+        <v>57.66116062315226</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844963</v>
+        <v>63.13094927844969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4612548573206</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.35623009495714</v>
+        <v>90.35623009495708</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640193</v>
+        <v>94.17786475640196</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>399.8223516122474</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27892,7 +27892,7 @@
         <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>73.40104353855554</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
         <v>133.6328276992101</v>
@@ -27932,7 +27932,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>187.5181515243659</v>
+        <v>184.4204929294312</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>69.51804420162362</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>31.13081250099125</v>
       </c>
       <c r="R9" t="n">
-        <v>145.1332942033654</v>
+        <v>144.7140833671753</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -27986,13 +27986,13 @@
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>233.7255167710576</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>263.1877141458868</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="C11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="H11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K11" t="n">
-        <v>160.7602011037069</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>127.2644044946441</v>
       </c>
       <c r="P11" t="n">
-        <v>178.141763849541</v>
+        <v>15.10088611163711</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.141763849541</v>
+        <v>89.71843090037112</v>
       </c>
       <c r="R11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.87368945842319</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>3.105362283808034</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T12" t="n">
-        <v>170.0006570629799</v>
+        <v>26.48501221066931</v>
       </c>
       <c r="U12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V12" t="n">
-        <v>178.141763849541</v>
+        <v>52.16287583916508</v>
       </c>
       <c r="W12" t="n">
-        <v>178.141763849541</v>
+        <v>78.52604188667536</v>
       </c>
       <c r="X12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="13">
@@ -28245,16 +28245,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D13" t="n">
-        <v>170.8617274181682</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28263,58 +28263,58 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H13" t="n">
-        <v>165.824644867158</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I13" t="n">
-        <v>164.8538042427314</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2415734024851</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K13" t="n">
         <v>67.03321058462942</v>
       </c>
       <c r="L13" t="n">
-        <v>32.15595010613794</v>
+        <v>96.23696117748707</v>
       </c>
       <c r="M13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="N13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="O13" t="n">
         <v>37.48281412028795</v>
       </c>
       <c r="P13" t="n">
-        <v>178.141763849541</v>
+        <v>58.4819617990068</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.141763849541</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="C14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="H14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J14" t="n">
-        <v>178.141763849541</v>
+        <v>76.78688000567917</v>
       </c>
       <c r="K14" t="n">
-        <v>178.141763849541</v>
+        <v>6.735077083103334</v>
       </c>
       <c r="L14" t="n">
-        <v>38.84107154547446</v>
+        <v>141.3030568549883</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8182434465955</v>
+        <v>99.20264566573752</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P14" t="n">
         <v>15.10088611163711</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.141763849541</v>
+        <v>89.71843090037112</v>
       </c>
       <c r="R14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="15">
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>144.3574421538368</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28424,10 +28424,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
-        <v>178.141763849541</v>
+        <v>116.2513012587369</v>
       </c>
       <c r="T15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X15" t="n">
-        <v>178.141763849541</v>
+        <v>28.82686936323344</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -28491,10 +28491,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G16" t="n">
         <v>168.7008027322384</v>
@@ -28503,55 +28503,55 @@
         <v>165.824644867158</v>
       </c>
       <c r="I16" t="n">
-        <v>164.8538042427314</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2415734024851</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K16" t="n">
-        <v>67.03321058462942</v>
+        <v>149.1617797113412</v>
       </c>
       <c r="L16" t="n">
-        <v>36.8358795948766</v>
+        <v>32.15595010613794</v>
       </c>
       <c r="M16" t="n">
-        <v>178.141763849541</v>
+        <v>25.22122397250162</v>
       </c>
       <c r="N16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="O16" t="n">
-        <v>178.141763849541</v>
+        <v>37.48281412028795</v>
       </c>
       <c r="P16" t="n">
-        <v>58.4819617990068</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.141763849541</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>297.4519284452682</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4519284452682</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J17" t="n">
-        <v>216.4181262997744</v>
+        <v>265.2729250819164</v>
       </c>
       <c r="K17" t="n">
-        <v>6.735077083103334</v>
+        <v>101.2295377294894</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28600,25 +28600,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P17" t="n">
         <v>15.10088611163711</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2044759766083</v>
+        <v>89.71843090037112</v>
       </c>
       <c r="R17" t="n">
         <v>194.8854391524908</v>
       </c>
       <c r="S17" t="n">
-        <v>227.518407079678</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4519284452682</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4519284452682</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V17" t="n">
         <v>297.4519284452682</v>
@@ -28649,22 +28649,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H18" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.87368945842319</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5914073600452</v>
+        <v>3.105362283808034</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9710572869065</v>
+        <v>26.48501221066931</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280716788486</v>
+        <v>205.9314231531636</v>
       </c>
       <c r="V18" t="n">
-        <v>155.2844713024312</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.82686936323344</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28819,43 +28819,43 @@
         <v>297.4519284452682</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4519284452682</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J20" t="n">
-        <v>113.8516370069972</v>
+        <v>76.78688000567917</v>
       </c>
       <c r="K20" t="n">
         <v>6.735077083103334</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>136.0163275422243</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.10088611163711</v>
+        <v>203.5869311878743</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2044759766083</v>
+        <v>89.71843090037112</v>
       </c>
       <c r="R20" t="n">
+        <v>194.8854391524908</v>
+      </c>
+      <c r="S20" t="n">
         <v>297.4519284452682</v>
       </c>
-      <c r="S20" t="n">
-        <v>227.518407079678</v>
-      </c>
       <c r="T20" t="n">
-        <v>297.4519284452682</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4519284452682</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V20" t="n">
         <v>297.4519284452682</v>
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28901,7 +28901,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.87368945842319</v>
       </c>
       <c r="R21" t="n">
         <v>134.7218599774646</v>
@@ -28931,13 +28931,13 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9710572869065</v>
+        <v>26.48501221066931</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261145</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>62.89486173368113</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.77767412526291</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -29056,10 +29056,10 @@
         <v>297.4519284452682</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4519284452682</v>
+        <v>265.1579887189651</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2729250819165</v>
+        <v>76.78688000567917</v>
       </c>
       <c r="K23" t="n">
         <v>6.735077083103334</v>
@@ -29068,10 +29068,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>15.10088611163711</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.6510591881516</v>
+        <v>278.2044759766083</v>
       </c>
       <c r="R23" t="n">
         <v>194.8854391524908</v>
@@ -29117,16 +29117,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446376404189</v>
@@ -29138,7 +29138,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
-        <v>5.216827111165188</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,22 +29162,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5914073600452</v>
+        <v>3.105362283808006</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9710572869065</v>
+        <v>190.5480982196446</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916505</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.2185385007744</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29296,13 +29296,13 @@
         <v>213.488029352129</v>
       </c>
       <c r="J26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521292</v>
       </c>
       <c r="K26" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4880293521292</v>
+        <v>213.488029352129</v>
       </c>
       <c r="M26" t="n">
         <v>213.488029352129</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -29360,10 +29360,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446376404189</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.488029352129</v>
@@ -29414,13 +29414,13 @@
         <v>213.488029352129</v>
       </c>
       <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="X27" t="n">
-        <v>97.49593870248475</v>
-      </c>
       <c r="Y27" t="n">
-        <v>213.488029352129</v>
+        <v>129.8957300347298</v>
       </c>
     </row>
     <row r="28">
@@ -29466,19 +29466,19 @@
         <v>25.22122397250162</v>
       </c>
       <c r="N28" t="n">
-        <v>213.488029352129</v>
+        <v>16.524412305751</v>
       </c>
       <c r="O28" t="n">
         <v>37.48281412028795</v>
       </c>
       <c r="P28" t="n">
-        <v>94.06707417143096</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.2193142604766</v>
+        <v>194.705158147435</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4312113734075</v>
+        <v>213.488029352129</v>
       </c>
       <c r="S28" t="n">
         <v>213.488029352129</v>
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29612,7 +29612,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J30" t="n">
-        <v>43.578918045517</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.87368945842319</v>
       </c>
       <c r="R30" t="n">
         <v>134.7218599774646</v>
@@ -29645,7 +29645,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="U30" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>213.488029352129</v>
@@ -29654,10 +29654,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
+        <v>10.19680259092584</v>
+      </c>
+      <c r="Y30" t="n">
         <v>213.488029352129</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29700,19 +29700,19 @@
         <v>32.15595010613794</v>
       </c>
       <c r="M31" t="n">
-        <v>213.488029352129</v>
+        <v>25.22122397250162</v>
       </c>
       <c r="N31" t="n">
         <v>16.524412305751</v>
       </c>
       <c r="O31" t="n">
-        <v>81.76473815946271</v>
+        <v>183.7628284474377</v>
       </c>
       <c r="P31" t="n">
         <v>58.4819617990068</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.2193142604766</v>
+        <v>213.488029352129</v>
       </c>
       <c r="R31" t="n">
         <v>203.4312113734075</v>
@@ -29770,7 +29770,7 @@
         <v>214.3979138113495</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3979138113495</v>
+        <v>192.2835716884574</v>
       </c>
       <c r="K32" t="n">
         <v>214.3979138113495</v>
@@ -29788,7 +29788,7 @@
         <v>214.3979138113495</v>
       </c>
       <c r="P32" t="n">
-        <v>192.2835716884579</v>
+        <v>214.3979138113495</v>
       </c>
       <c r="Q32" t="n">
         <v>214.3979138113495</v>
@@ -29876,19 +29876,19 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>214.3979138113495</v>
       </c>
-      <c r="U33" t="n">
-        <v>7.467149213264378</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>199.0585565733095</v>
       </c>
       <c r="X33" t="n">
         <v>214.3979138113495</v>
@@ -29928,16 +29928,16 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J34" t="n">
-        <v>214.3979138113495</v>
+        <v>120.2415734024851</v>
       </c>
       <c r="K34" t="n">
         <v>67.03321058462942</v>
       </c>
       <c r="L34" t="n">
-        <v>164.0498275207863</v>
+        <v>32.15595010613794</v>
       </c>
       <c r="M34" t="n">
-        <v>25.22122397250162</v>
+        <v>214.3979138113495</v>
       </c>
       <c r="N34" t="n">
         <v>16.524412305751</v>
@@ -29949,7 +29949,7 @@
         <v>58.4819617990068</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2193142604766</v>
+        <v>164.0928422451413</v>
       </c>
       <c r="R34" t="n">
         <v>203.4312113734075</v>
@@ -30004,19 +30004,19 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0590744345018</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0590744345018</v>
+        <v>76.78688000567917</v>
       </c>
       <c r="K35" t="n">
         <v>6.735077083103334</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2782666360721</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>178.7934532276793</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,13 +30025,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>205.0623487547314</v>
+        <v>138.3919020626843</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0590744345018</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S35" t="n">
         <v>272.0590744345018</v>
@@ -30040,7 +30040,7 @@
         <v>272.0590744345018</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0590744345018</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V35" t="n">
         <v>272.0590744345018</v>
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>111.3767180324093</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446376404189</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.5914073600452</v>
@@ -30128,10 +30128,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>20.22195814939781</v>
       </c>
     </row>
     <row r="37">
@@ -30174,7 +30174,7 @@
         <v>32.15595010613794</v>
       </c>
       <c r="M37" t="n">
-        <v>60.77791890724136</v>
+        <v>25.22122397250162</v>
       </c>
       <c r="N37" t="n">
         <v>16.524412305751</v>
@@ -30189,7 +30189,7 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4312113734075</v>
+        <v>238.9879063081472</v>
       </c>
       <c r="S37" t="n">
         <v>235.4385289329965</v>
@@ -30244,40 +30244,40 @@
         <v>272.0590744345018</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0590744345018</v>
+        <v>76.78688000567917</v>
       </c>
       <c r="K38" t="n">
-        <v>196.6965397261976</v>
+        <v>267.1963319404243</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2782666360721</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>11.55220848799816</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.9054012444096</v>
       </c>
       <c r="P38" t="n">
         <v>15.10088611163711</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0590744345018</v>
+        <v>89.71843090037112</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0590744345018</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0590744345018</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T38" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0590744345018</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V38" t="n">
         <v>272.0590744345018</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30308,10 +30308,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>140.0570323243317</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446376404189</v>
@@ -30323,7 +30323,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J39" t="n">
-        <v>4.95295693172374</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.5914073600452</v>
@@ -30356,7 +30356,7 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30365,7 +30365,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30414,7 +30414,7 @@
         <v>25.22122397250162</v>
       </c>
       <c r="N40" t="n">
-        <v>52.08110724049074</v>
+        <v>16.524412305751</v>
       </c>
       <c r="O40" t="n">
         <v>37.48281412028795</v>
@@ -30426,7 +30426,7 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R40" t="n">
-        <v>203.4312113734075</v>
+        <v>238.9879063081472</v>
       </c>
       <c r="S40" t="n">
         <v>235.4385289329965</v>
@@ -30481,25 +30481,25 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J41" t="n">
+        <v>76.78688000567917</v>
+      </c>
+      <c r="K41" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="K41" t="n">
-        <v>6.735077083103334</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="M41" t="n">
-        <v>47.99005634402999</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="N41" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>241.0121589565495</v>
+        <v>232.4441642548753</v>
       </c>
       <c r="Q41" t="n">
         <v>241.0121589565495</v>
@@ -30508,7 +30508,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="S41" t="n">
-        <v>241.0121589565495</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T41" t="n">
         <v>241.0121589565495</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.866322245333502</v>
+        <v>6.87368945842319</v>
       </c>
       <c r="R42" t="n">
         <v>134.7218599774646</v>
@@ -30596,16 +30596,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>195.0409124450043</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30645,7 +30645,7 @@
         <v>67.03321058462942</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15595010613794</v>
+        <v>97.666323703838</v>
       </c>
       <c r="M43" t="n">
         <v>25.22122397250162</v>
@@ -30654,7 +30654,7 @@
         <v>16.524412305751</v>
       </c>
       <c r="O43" t="n">
-        <v>140.5741353011301</v>
+        <v>37.48281412028795</v>
       </c>
       <c r="P43" t="n">
         <v>58.4819617990068</v>
@@ -30663,7 +30663,7 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4312113734075</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="S43" t="n">
         <v>235.4385289329965</v>
@@ -30721,7 +30721,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="K44" t="n">
-        <v>241.0121589565495</v>
+        <v>6.735077083103334</v>
       </c>
       <c r="L44" t="n">
         <v>241.0121589565495</v>
@@ -30730,10 +30730,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="O44" t="n">
-        <v>54.72513342713337</v>
+        <v>126.1565342350452</v>
       </c>
       <c r="P44" t="n">
         <v>241.0121589565495</v>
@@ -30742,13 +30742,13 @@
         <v>241.0121589565495</v>
       </c>
       <c r="R44" t="n">
-        <v>241.0121589565495</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S44" t="n">
-        <v>241.0121589565495</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T44" t="n">
-        <v>241.0121589565495</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U44" t="n">
         <v>241.0121589565495</v>
@@ -30773,19 +30773,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.1954531944482</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446376404189</v>
@@ -30824,16 +30824,16 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9710572869065</v>
+        <v>146.6991529324895</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0121589565495</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.206918035433006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.516869431124803</v>
+        <v>3.374773696533903</v>
       </c>
       <c r="M9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.1678556611008989</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>101.3548838438619</v>
       </c>
       <c r="K11" t="n">
-        <v>154.0251240206035</v>
+        <v>171.4066867664377</v>
       </c>
       <c r="L11" t="n">
         <v>47.18298822124883</v>
       </c>
       <c r="M11" t="n">
-        <v>81.66780162964164</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="N11" t="n">
         <v>76.07772050874952</v>
       </c>
       <c r="O11" t="n">
-        <v>34.55585361291129</v>
+        <v>161.8202581075554</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0408777379039</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.42333294916992</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35541,16 +35541,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.5248431845729726</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.68458287756872</v>
       </c>
       <c r="D13" t="n">
-        <v>25.67907716745749</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.46562263731607</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35559,34 +35559,34 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.31711898238311</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.28795960680969</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.900190447056</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>64.08101107134914</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9205398770394</v>
+        <v>152.9205398770395</v>
       </c>
       <c r="N13" t="n">
-        <v>161.61735154379</v>
+        <v>161.6173515437901</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6598020505342</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.92244958906443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3548838438619</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4066867664377</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>86.0240597667233</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="M14" t="n">
+        <v>180.8704472953792</v>
+      </c>
+      <c r="N14" t="n">
         <v>188.4860450762372</v>
       </c>
-      <c r="N14" t="n">
-        <v>76.07772050874952</v>
-      </c>
       <c r="O14" t="n">
-        <v>34.55585361291129</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294916992</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.5248431845729726</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35787,10 +35787,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.46562263731607</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.21488163109441</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35799,31 +35799,31 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.28795960680969</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.900190447056</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>82.1285691267118</v>
       </c>
       <c r="L16" t="n">
-        <v>4.679929488738668</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9205398770394</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.61735154379</v>
+        <v>161.6173515437901</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6589497292531</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.6598020505343</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.92244958906443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43976948871865</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>139.6312462940953</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>94.49446064638609</v>
       </c>
       <c r="L17" t="n">
         <v>47.18298822124883</v>
@@ -35896,25 +35896,25 @@
         <v>76.07772050874952</v>
       </c>
       <c r="O17" t="n">
-        <v>34.55585361291129</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.93352136559018</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98577569880344</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.30138199368485</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34143840733894</v>
+        <v>38.34143840733903</v>
       </c>
       <c r="L18" t="n">
         <v>118.5108989343404</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43976948871865</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>37.06475700131799</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.18298822124883</v>
+        <v>183.1993157634731</v>
       </c>
       <c r="M20" t="n">
         <v>81.66780162964164</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874952</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O20" t="n">
         <v>34.55585361291129</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.93352136559018</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98577569880344</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.30138199368485</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34143840733894</v>
+        <v>38.34143840733903</v>
       </c>
       <c r="L21" t="n">
         <v>118.5108989343404</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43976948871865</v>
+        <v>24.14582976241557</v>
       </c>
       <c r="J23" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>47.18298822124883</v>
       </c>
       <c r="M23" t="n">
-        <v>81.66780162964164</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874952</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O23" t="n">
         <v>34.55585361291129</v>
@@ -36376,7 +36376,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.9326282877805</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.3414384073393</v>
+        <v>38.34143840733894</v>
       </c>
       <c r="L24" t="n">
         <v>118.5108989343404</v>
@@ -36446,7 +36446,7 @@
         <v>183.5033607911779</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O24" t="n">
         <v>133.0233611548193</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7011493464499</v>
+        <v>136.70114934645</v>
       </c>
       <c r="K26" t="n">
         <v>206.7529522690257</v>
       </c>
       <c r="L26" t="n">
-        <v>260.671017573378</v>
+        <v>260.6710175733779</v>
       </c>
       <c r="M26" t="n">
         <v>295.1558309817707</v>
@@ -36762,19 +36762,19 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>196.9636170463781</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>35.58511237242416</v>
+        <v>155.0060675531223</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>67.48584388695836</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.05681797872157</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.2668053796274</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>44.28192403917476</v>
+        <v>146.2800143271498</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.26871509165244</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6110338056703</v>
+        <v>115.4966916827782</v>
       </c>
       <c r="K32" t="n">
         <v>207.6628367282462</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5809020325983</v>
+        <v>261.5809020325984</v>
       </c>
       <c r="M32" t="n">
-        <v>296.0657154409911</v>
+        <v>296.0657154409912</v>
       </c>
       <c r="N32" t="n">
-        <v>290.475634320099</v>
+        <v>290.4756343200991</v>
       </c>
       <c r="O32" t="n">
         <v>248.9537674242608</v>
       </c>
       <c r="P32" t="n">
-        <v>177.1826855768208</v>
+        <v>199.2970276997124</v>
       </c>
       <c r="Q32" t="n">
         <v>124.6794829109784</v>
       </c>
       <c r="R32" t="n">
-        <v>19.51247465885865</v>
+        <v>19.51247465885868</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>94.15634040886444</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>131.8938774146484</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>189.1766898388479</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>36.87352798466469</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,19 +37300,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04691547795228</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2721944288226</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.18298822124883</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="M35" t="n">
-        <v>81.66780162964164</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="N35" t="n">
         <v>76.07772050874952</v>
@@ -37321,13 +37321,13 @@
         <v>34.55585361291129</v>
       </c>
       <c r="P35" t="n">
-        <v>189.9614626430943</v>
+        <v>123.2910159510472</v>
       </c>
       <c r="Q35" t="n">
         <v>182.3406435341307</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17363528201093</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>44.54066735482381</v>
@@ -37336,7 +37336,7 @@
         <v>49.59292168803707</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90852798291848</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37470,22 +37470,22 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>35.55669493473975</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,40 +37540,40 @@
         <v>31.04691547795228</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2721944288226</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>189.9614626430943</v>
+        <v>260.461254857321</v>
       </c>
       <c r="L38" t="n">
-        <v>47.18298822124883</v>
+        <v>260.461254857321</v>
       </c>
       <c r="M38" t="n">
         <v>81.66780162964164</v>
       </c>
       <c r="N38" t="n">
-        <v>76.07772050874952</v>
+        <v>87.62992899674768</v>
       </c>
       <c r="O38" t="n">
-        <v>34.55585361291129</v>
+        <v>260.461254857321</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3406435341307</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17363528201093</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54066735482381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>49.59292168803707</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90852798291848</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37710,19 +37710,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>35.55669493473975</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.2252789508704</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>234.2770818734462</v>
       </c>
       <c r="L41" t="n">
-        <v>47.18298822124883</v>
+        <v>288.1951471777983</v>
       </c>
       <c r="M41" t="n">
-        <v>129.6578579736716</v>
+        <v>322.6799605861912</v>
       </c>
       <c r="N41" t="n">
-        <v>317.089879465299</v>
+        <v>76.07772050874952</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5680125694608</v>
+        <v>34.55585361291129</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9112728449124</v>
+        <v>217.3432781432381</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2937280561784</v>
@@ -37804,7 +37804,7 @@
         <v>46.12671980405867</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49375187687154</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>18.5460062100848</v>
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>65.51037359770007</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>103.0913211808421</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.58094758314204</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>164.2252789508704</v>
       </c>
       <c r="K44" t="n">
-        <v>234.2770818734462</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>288.1951471777983</v>
@@ -38026,10 +38026,10 @@
         <v>81.66780162964164</v>
       </c>
       <c r="N44" t="n">
-        <v>76.07772050874952</v>
+        <v>317.089879465299</v>
       </c>
       <c r="O44" t="n">
-        <v>89.28098704004466</v>
+        <v>160.7123878479565</v>
       </c>
       <c r="P44" t="n">
         <v>225.9112728449124</v>
@@ -38038,13 +38038,13 @@
         <v>151.2937280561784</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12671980405867</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49375187687154</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.5460062100848</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
